--- a/tableau_e4.xlsx
+++ b/tableau_e4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\BTS SIO Année1\Cybersécurité des services informatiques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6676D41-8884-41F2-83D6-06A608C33E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59DA322-3B6A-49DE-B860-F74A8D8E1679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -134,9 +134,6 @@
     <t xml:space="preserve">Intégration d'un Ordinateur client au sein du réseau de l'entreprise </t>
   </si>
   <si>
-    <t>Création d'une VM sur un stack LAMP</t>
-  </si>
-  <si>
     <t>01/09/2025
 31/08/2026</t>
   </si>
@@ -149,13 +146,49 @@
 31/08/2027</t>
   </si>
   <si>
-    <t xml:space="preserve">Installer un WAF </t>
-  </si>
-  <si>
     <t>Mettre à jour le profil Linkedin</t>
   </si>
   <si>
     <t>Création d'un Portfolio</t>
+  </si>
+  <si>
+    <t>Création d'une VM avec un stack LAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connaissance des attaques majeures en Cybersécurité </t>
+  </si>
+  <si>
+    <t>Apprentissage du RGPD</t>
+  </si>
+  <si>
+    <t>Utilisation de langage de code HTML, PHP, MySQL, JavaScript</t>
+  </si>
+  <si>
+    <t>Création d'un réseau privé Windows Serveur - Machine Cliente</t>
+  </si>
+  <si>
+    <t>Qualification des Adresses IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réparation d'ordinateur client défecteux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accomplissement des requêtes GLPI </t>
+  </si>
+  <si>
+    <t>Habilitation d'un nouvel utilisateur au sein d'un réseau privé</t>
+  </si>
+  <si>
+    <t>Support des Utilisateurs sur site et à distance</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Déploiement de Serveurs (GLPI, WAMPP) sur Entra</t>
+  </si>
+  <si>
+    <t>Déploiement de VLAN</t>
   </si>
 </sst>
 </file>
@@ -165,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -223,12 +256,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="48"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -632,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -661,9 +700,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,18 +721,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -721,52 +802,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1079,8 +1124,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1093,83 +1138,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="28" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="43"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1192,24 +1237,24 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="18" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>14</v>
       </c>
       <c r="I7"/>
@@ -1249,16 +1294,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1296,18 +1341,26 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="A9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="46"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1345,18 +1398,26 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="A10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46" t="s">
+        <v>45</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1394,18 +1455,26 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
+      <c r="A11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="46"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1443,18 +1512,22 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="A12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46" t="s">
+        <v>45</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1492,15 +1565,30 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
+      <c r="A13" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>45</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1538,16 +1626,22 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="A14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1585,16 +1679,24 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
+      <c r="A15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1632,16 +1734,22 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="A16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1679,16 +1787,22 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="A17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46" t="s">
+        <v>45</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1726,16 +1840,24 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
+      <c r="A18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="46"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1773,16 +1895,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1820,18 +1942,26 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="B20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>45</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1869,18 +1999,22 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
+      <c r="B21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1918,18 +2052,24 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="B22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="46"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1967,16 +2107,24 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="46"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2014,16 +2162,24 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
+      <c r="A24" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="46"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2061,16 +2217,24 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
+      <c r="A25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="46"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2108,16 +2272,24 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="A26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="46"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2155,16 +2327,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2202,16 +2374,16 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2249,16 +2421,16 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2296,16 +2468,16 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2343,16 +2515,16 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2390,16 +2562,16 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2437,16 +2609,16 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2484,16 +2656,16 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2623,6 +2795,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2630,11 +2807,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
